--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS MAYO 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS MAYO 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="94">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-2962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta boleta de depósito</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-3656</t>
@@ -419,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,10 +446,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,10 +522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="N:AG"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,19 +611,19 @@
       <c r="H2" s="7" t="n">
         <v>36146000</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="4" t="n">
         <v>1944813</v>
       </c>
-      <c r="J2" s="9" t="n">
+      <c r="J2" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="9" t="n">
         <v>36146000</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="4"/>
@@ -640,7 +633,7 @@
       <c r="A3" s="5" t="n">
         <v>42492</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -661,13 +654,13 @@
       <c r="H3" s="7" t="n">
         <v>17576000</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="4" t="n">
         <v>2116321</v>
       </c>
-      <c r="J3" s="9" t="n">
+      <c r="J3" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="9" t="n">
         <v>17576000</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -683,7 +676,7 @@
       <c r="A4" s="5" t="n">
         <v>42493</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -704,13 +697,13 @@
       <c r="H4" s="7" t="n">
         <v>31713000</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="4" t="n">
         <v>2116727</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="9" t="n">
         <v>31713000</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -726,7 +719,7 @@
       <c r="A5" s="5" t="n">
         <v>42493</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -747,19 +740,19 @@
       <c r="H5" s="7" t="n">
         <v>19036500</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="4" t="n">
         <v>2116325</v>
       </c>
-      <c r="J5" s="9" t="n">
+      <c r="J5" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="9" t="n">
         <v>19036500</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="4"/>
@@ -769,7 +762,7 @@
       <c r="A6" s="5" t="n">
         <v>42494</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -790,19 +783,19 @@
       <c r="H6" s="7" t="n">
         <v>69223000</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="4" t="n">
         <v>2116308</v>
       </c>
-      <c r="J6" s="9" t="n">
+      <c r="J6" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="9" t="n">
         <v>69223000</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="L6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="4"/>
@@ -833,17 +826,17 @@
       <c r="H7" s="7" t="n">
         <v>18694000</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="4" t="n">
         <v>2119393</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="4"/>
@@ -874,17 +867,17 @@
       <c r="H8" s="7" t="n">
         <v>18252000</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="4" t="n">
         <v>2119393</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="4"/>
@@ -915,19 +908,19 @@
       <c r="H9" s="7" t="n">
         <v>20202000</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="4" t="n">
         <v>2119393</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="9" t="n">
         <v>57148000</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="4"/>
@@ -958,19 +951,19 @@
       <c r="H10" s="7" t="n">
         <v>69223000</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="4" t="n">
         <v>2116333</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="9" t="n">
         <v>69223000</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="4"/>
@@ -1004,10 +997,10 @@
       <c r="I11" s="4" t="n">
         <v>2116335</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="9" t="n">
         <v>52855000</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -1044,17 +1037,17 @@
       <c r="H12" s="7" t="n">
         <v>38461500</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="4" t="n">
         <v>2116334</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="4"/>
@@ -1085,19 +1078,19 @@
       <c r="H13" s="7" t="n">
         <v>22160500</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="4" t="n">
         <v>2116334</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="9" t="n">
         <v>60622000</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="L13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="4"/>
@@ -1131,10 +1124,10 @@
       <c r="I14" s="4" t="n">
         <v>2116347</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="8" t="n">
         <v>42524</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="9" t="n">
         <v>56606000</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -1171,19 +1164,19 @@
       <c r="H15" s="7" t="n">
         <v>139076500</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="4" t="n">
         <v>2116314</v>
       </c>
-      <c r="J15" s="9" t="n">
+      <c r="J15" s="8" t="n">
         <v>42529</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="9" t="n">
         <v>139076500</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="L15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="4"/>
@@ -1214,20 +1207,18 @@
       <c r="H16" s="7" t="n">
         <v>34476000</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="4" t="n">
         <v>2116299</v>
       </c>
-      <c r="J16" s="9" t="n">
+      <c r="J16" s="8" t="n">
         <v>42513</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,22 +1246,20 @@
       <c r="H17" s="7" t="n">
         <v>21120500</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="4" t="n">
         <v>2116299</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="8" t="n">
         <v>42513</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="9" t="n">
         <v>55596500</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,10 +1267,10 @@
         <v>42503</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -1298,19 +1287,19 @@
       <c r="H18" s="7" t="n">
         <v>56606000</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="4" t="n">
         <v>15513538</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="9" t="n">
         <v>56606000</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="L18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="4"/>
@@ -1321,10 +1310,10 @@
         <v>42502</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
@@ -1344,10 +1333,10 @@
       <c r="I19" s="4" t="n">
         <v>15513539</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="9" t="n">
         <v>51150000</v>
       </c>
       <c r="L19" s="4" t="s">
@@ -1364,10 +1353,10 @@
         <v>42502</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -1387,10 +1376,10 @@
       <c r="I20" s="4" t="n">
         <v>15513540</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="9" t="n">
         <v>50700000</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1407,10 +1396,10 @@
         <v>42503</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -1430,10 +1419,10 @@
       <c r="I21" s="4" t="n">
         <v>15513537</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1448,10 +1437,10 @@
         <v>42503</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -1471,10 +1460,10 @@
       <c r="I22" s="4" t="n">
         <v>15513537</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="9" t="n">
         <v>54565000</v>
       </c>
       <c r="L22" s="4" t="s">
@@ -1491,10 +1480,10 @@
         <v>42507</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -1511,19 +1500,19 @@
       <c r="H23" s="7" t="n">
         <v>119009000</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="4" t="n">
         <v>2116355</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="8" t="n">
         <v>42535</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="9" t="n">
         <v>119009000</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="L23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N23" s="4"/>
@@ -1534,10 +1523,10 @@
         <v>42507</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
@@ -1554,19 +1543,19 @@
       <c r="H24" s="7" t="n">
         <v>68200000</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="4" t="n">
         <v>15229685</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="8" t="n">
         <v>42534</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="9" t="n">
         <v>68200000</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="L24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N24" s="4"/>
@@ -1577,10 +1566,10 @@
         <v>42507</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
@@ -1597,17 +1586,17 @@
       <c r="H25" s="7" t="n">
         <v>16900000</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="4" t="n">
         <v>1546719</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="4"/>
@@ -1618,10 +1607,10 @@
         <v>42507</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>14</v>
@@ -1638,19 +1627,19 @@
       <c r="H26" s="7" t="n">
         <v>19925000</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="4" t="n">
         <v>1546719</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="9" t="n">
         <v>36825000</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="L26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="4"/>
@@ -1661,10 +1650,10 @@
         <v>42507</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>14</v>
@@ -1681,19 +1670,19 @@
       <c r="H27" s="7" t="n">
         <v>39215000</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="4" t="n">
         <v>2116328</v>
       </c>
-      <c r="J27" s="9" t="n">
+      <c r="J27" s="8" t="n">
         <v>42537</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="9" t="n">
         <v>39215000</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="L27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N27" s="4"/>
@@ -1704,10 +1693,10 @@
         <v>42507</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>14</v>
@@ -1727,10 +1716,10 @@
       <c r="I28" s="4" t="n">
         <v>2116336</v>
       </c>
-      <c r="J28" s="9" t="n">
+      <c r="J28" s="8" t="n">
         <v>42529</v>
       </c>
-      <c r="K28" s="12" t="n">
+      <c r="K28" s="11" t="n">
         <v>15940000</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -1747,10 +1736,10 @@
         <v>42509</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
@@ -1770,10 +1759,10 @@
       <c r="I29" s="4" t="n">
         <v>2116353</v>
       </c>
-      <c r="J29" s="9" t="n">
+      <c r="J29" s="8" t="n">
         <v>42534</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="9" t="n">
         <v>39215000</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -1790,10 +1779,10 @@
         <v>42509</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
@@ -1813,10 +1802,10 @@
       <c r="I30" s="4" t="n">
         <v>1546724</v>
       </c>
-      <c r="J30" s="9" t="n">
+      <c r="J30" s="8" t="n">
         <v>42527</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="9" t="n">
         <v>18860000</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -1833,10 +1822,10 @@
         <v>42509</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
@@ -1856,10 +1845,10 @@
       <c r="I31" s="4" t="n">
         <v>2116330</v>
       </c>
-      <c r="J31" s="9" t="n">
+      <c r="J31" s="8" t="n">
         <v>42536</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="9" t="n">
         <v>51150000</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -1876,10 +1865,10 @@
         <v>42509</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>14</v>
@@ -1893,22 +1882,22 @@
       <c r="G32" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H32" s="13" t="n">
+      <c r="H32" s="12" t="n">
         <v>16900000</v>
       </c>
-      <c r="I32" s="14" t="n">
+      <c r="I32" s="13" t="n">
         <v>1607365</v>
       </c>
-      <c r="J32" s="15" t="n">
+      <c r="J32" s="14" t="n">
         <v>42531</v>
       </c>
-      <c r="K32" s="16" t="n">
+      <c r="K32" s="15" t="n">
         <v>1028500</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="L32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="4"/>
@@ -1919,10 +1908,10 @@
         <v>42509</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>14</v>
@@ -1936,36 +1925,36 @@
       <c r="G33" s="7" t="n">
         <v>3985</v>
       </c>
-      <c r="H33" s="13" t="n">
+      <c r="H33" s="12" t="n">
         <v>39850000</v>
       </c>
-      <c r="I33" s="14" t="n">
+      <c r="I33" s="13" t="n">
         <v>1546723</v>
       </c>
-      <c r="J33" s="15" t="n">
+      <c r="J33" s="14" t="n">
         <v>42527</v>
       </c>
-      <c r="K33" s="16" t="n">
+      <c r="K33" s="15" t="n">
         <v>55722500</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="8" t="s">
+      <c r="L33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="16" t="n">
         <v>42494</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>14</v>
@@ -1985,10 +1974,10 @@
       <c r="I34" s="4" t="n">
         <v>15229741</v>
       </c>
-      <c r="J34" s="9" t="n">
+      <c r="J34" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K34" s="10" t="n">
+      <c r="K34" s="9" t="n">
         <v>52855000</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -2005,10 +1994,10 @@
         <v>42509</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>14</v>
@@ -2028,10 +2017,10 @@
       <c r="I35" s="4" t="n">
         <v>15229689</v>
       </c>
-      <c r="J35" s="9" t="n">
+      <c r="J35" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="4" t="s">
         <v>17</v>
       </c>
@@ -2046,10 +2035,10 @@
         <v>42509</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>14</v>
@@ -2069,10 +2058,10 @@
       <c r="I36" s="4" t="n">
         <v>15229689</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="9"/>
       <c r="L36" s="4" t="s">
         <v>17</v>
       </c>
@@ -2087,10 +2076,10 @@
         <v>42509</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -2110,10 +2099,10 @@
       <c r="I37" s="4" t="n">
         <v>15229689</v>
       </c>
-      <c r="J37" s="9" t="n">
+      <c r="J37" s="8" t="n">
         <v>42531</v>
       </c>
-      <c r="K37" s="10" t="n">
+      <c r="K37" s="9" t="n">
         <v>55949500</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2130,10 +2119,10 @@
         <v>42510</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>14</v>
@@ -2153,10 +2142,10 @@
       <c r="I38" s="4" t="n">
         <v>2116354</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J38" s="8" t="n">
         <v>42534</v>
       </c>
-      <c r="K38" s="10" t="n">
+      <c r="K38" s="9" t="n">
         <v>34100000</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -2173,10 +2162,10 @@
         <v>42510</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>14</v>
@@ -2196,10 +2185,10 @@
       <c r="I39" s="4" t="n">
         <v>2116372</v>
       </c>
-      <c r="J39" s="9" t="n">
+      <c r="J39" s="8" t="n">
         <v>42538</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2214,10 +2203,10 @@
         <v>42510</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>14</v>
@@ -2237,10 +2226,10 @@
       <c r="I40" s="4" t="n">
         <v>2116372</v>
       </c>
-      <c r="J40" s="9" t="n">
+      <c r="J40" s="8" t="n">
         <v>42538</v>
       </c>
-      <c r="K40" s="10"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="4" t="s">
         <v>16</v>
       </c>
@@ -2255,10 +2244,10 @@
         <v>42510</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>14</v>
@@ -2278,10 +2267,10 @@
       <c r="I41" s="4" t="n">
         <v>2116372</v>
       </c>
-      <c r="J41" s="9" t="n">
+      <c r="J41" s="8" t="n">
         <v>42538</v>
       </c>
-      <c r="K41" s="18" t="n">
+      <c r="K41" s="17" t="n">
         <v>80325000</v>
       </c>
       <c r="L41" s="4" t="s">
@@ -2298,10 +2287,10 @@
         <v>42510</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -2321,10 +2310,10 @@
       <c r="I42" s="4" t="n">
         <v>2116375</v>
       </c>
-      <c r="J42" s="9" t="n">
+      <c r="J42" s="8" t="n">
         <v>42538</v>
       </c>
-      <c r="K42" s="10" t="n">
+      <c r="K42" s="9" t="n">
         <v>50127000</v>
       </c>
       <c r="L42" s="4" t="s">
@@ -2341,16 +2330,16 @@
         <v>42510</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F43" s="7" t="n">
         <v>5000</v>
@@ -2364,10 +2353,10 @@
       <c r="I43" s="4" t="n">
         <v>2116378</v>
       </c>
-      <c r="J43" s="9" t="n">
+      <c r="J43" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K43" s="10"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="4" t="s">
         <v>16</v>
       </c>
@@ -2382,10 +2371,10 @@
         <v>42510</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -2405,10 +2394,10 @@
       <c r="I44" s="4" t="n">
         <v>2116378</v>
       </c>
-      <c r="J44" s="9" t="n">
+      <c r="J44" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K44" s="10"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="4" t="s">
         <v>16</v>
       </c>
@@ -2423,10 +2412,10 @@
         <v>42510</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>14</v>
@@ -2446,10 +2435,10 @@
       <c r="I45" s="4" t="n">
         <v>2116378</v>
       </c>
-      <c r="J45" s="9" t="n">
+      <c r="J45" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K45" s="10" t="n">
+      <c r="K45" s="9" t="n">
         <v>61287500</v>
       </c>
       <c r="L45" s="4" t="s">
@@ -2466,10 +2455,10 @@
         <v>42514</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -2486,19 +2475,19 @@
       <c r="H46" s="7" t="n">
         <v>52855000</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="4" t="n">
         <v>2116373</v>
       </c>
-      <c r="J46" s="9" t="n">
+      <c r="J46" s="8" t="n">
         <v>42538</v>
       </c>
-      <c r="K46" s="10" t="n">
+      <c r="K46" s="9" t="n">
         <v>52855000</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="8" t="s">
+      <c r="L46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N46" s="4"/>
@@ -2509,10 +2498,10 @@
         <v>42514</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -2532,10 +2521,10 @@
       <c r="I47" s="4" t="n">
         <v>2116380</v>
       </c>
-      <c r="J47" s="9" t="n">
+      <c r="J47" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="4" t="s">
         <v>16</v>
       </c>
@@ -2550,10 +2539,10 @@
         <v>42514</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>14</v>
@@ -2573,10 +2562,10 @@
       <c r="I48" s="4" t="n">
         <v>2116380</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="J48" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K48" s="10"/>
+      <c r="K48" s="9"/>
       <c r="L48" s="4" t="s">
         <v>16</v>
       </c>
@@ -2591,10 +2580,10 @@
         <v>42514</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>14</v>
@@ -2614,10 +2603,10 @@
       <c r="I49" s="4" t="n">
         <v>2116380</v>
       </c>
-      <c r="J49" s="9" t="n">
+      <c r="J49" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K49" s="10" t="n">
+      <c r="K49" s="9" t="n">
         <v>111550000</v>
       </c>
       <c r="L49" s="4" t="s">
@@ -2634,10 +2623,10 @@
         <v>42516</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -2654,17 +2643,17 @@
       <c r="H50" s="7" t="n">
         <v>22289000</v>
       </c>
-      <c r="I50" s="8" t="n">
+      <c r="I50" s="4" t="n">
         <v>2116377</v>
       </c>
-      <c r="J50" s="9" t="n">
+      <c r="J50" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="8" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="4"/>
@@ -2675,10 +2664,10 @@
         <v>42516</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>14</v>
@@ -2695,17 +2684,17 @@
       <c r="H51" s="7" t="n">
         <v>18709000</v>
       </c>
-      <c r="I51" s="8" t="n">
+      <c r="I51" s="4" t="n">
         <v>2116377</v>
       </c>
-      <c r="J51" s="9" t="n">
+      <c r="J51" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="8" t="s">
+      <c r="K51" s="9"/>
+      <c r="L51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N51" s="4"/>
@@ -2716,10 +2705,10 @@
         <v>42516</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>14</v>
@@ -2736,19 +2725,19 @@
       <c r="H52" s="7" t="n">
         <v>16340000</v>
       </c>
-      <c r="I52" s="8" t="n">
+      <c r="I52" s="4" t="n">
         <v>2116377</v>
       </c>
-      <c r="J52" s="9" t="n">
+      <c r="J52" s="8" t="n">
         <v>42543</v>
       </c>
-      <c r="K52" s="10" t="n">
+      <c r="K52" s="9" t="n">
         <v>57338000</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="8" t="s">
+      <c r="L52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N52" s="4"/>
@@ -2759,10 +2748,10 @@
         <v>42516</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>14</v>
@@ -2782,10 +2771,10 @@
       <c r="I53" s="4" t="n">
         <v>2116381</v>
       </c>
-      <c r="J53" s="9" t="n">
+      <c r="J53" s="8" t="n">
         <v>42555</v>
       </c>
-      <c r="K53" s="10" t="n">
+      <c r="K53" s="9" t="n">
         <v>124244000</v>
       </c>
       <c r="L53" s="4" t="s">
@@ -2802,10 +2791,10 @@
         <v>42516</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>14</v>
@@ -2825,10 +2814,10 @@
       <c r="I54" s="4" t="n">
         <v>2116312</v>
       </c>
-      <c r="J54" s="9" t="n">
+      <c r="J54" s="8" t="n">
         <v>42544</v>
       </c>
-      <c r="K54" s="10"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="4" t="s">
         <v>16</v>
       </c>
@@ -2843,10 +2832,10 @@
         <v>42516</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>14</v>
@@ -2866,10 +2855,10 @@
       <c r="I55" s="4" t="n">
         <v>2116312</v>
       </c>
-      <c r="J55" s="9" t="n">
+      <c r="J55" s="8" t="n">
         <v>42544</v>
       </c>
-      <c r="K55" s="10"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="4" t="s">
         <v>16</v>
       </c>
@@ -2884,10 +2873,10 @@
         <v>42516</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>14</v>
@@ -2907,10 +2896,10 @@
       <c r="I56" s="4" t="n">
         <v>2116312</v>
       </c>
-      <c r="J56" s="9" t="n">
+      <c r="J56" s="8" t="n">
         <v>42544</v>
       </c>
-      <c r="K56" s="10" t="n">
+      <c r="K56" s="9" t="n">
         <v>114575000</v>
       </c>
       <c r="L56" s="4" t="s">
@@ -2927,10 +2916,10 @@
         <v>42517</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>14</v>
@@ -2950,10 +2939,10 @@
       <c r="I57" s="4" t="n">
         <v>2116376</v>
       </c>
-      <c r="J57" s="9" t="n">
+      <c r="J57" s="8" t="n">
         <v>42541</v>
       </c>
-      <c r="K57" s="10"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="4" t="s">
         <v>16</v>
       </c>
@@ -2968,10 +2957,10 @@
         <v>42517</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -2991,10 +2980,10 @@
       <c r="I58" s="4" t="n">
         <v>2116376</v>
       </c>
-      <c r="J58" s="9" t="n">
+      <c r="J58" s="8" t="n">
         <v>42541</v>
       </c>
-      <c r="K58" s="10" t="n">
+      <c r="K58" s="9" t="n">
         <v>59347500</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -3006,12 +2995,12 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="20" t="n">
+    <row r="59" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="19" t="n">
         <f aca="false">SUM(H2:H58)</f>
         <v>2177560000</v>
       </c>
-      <c r="K59" s="21" t="n">
+      <c r="K59" s="20" t="n">
         <f aca="false">SUM(K2:K58)</f>
         <v>2177561000</v>
       </c>
@@ -3020,18 +3009,11 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="22" t="n">
+      <c r="H62" s="21" t="n">
         <f aca="false">K59-H59</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
